--- a/Employee.xlsx
+++ b/Employee.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B64A4C33-20DC-4C74-8C9E-9873C84CD288}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9868A2B-B84F-447A-B84A-0E975041379C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37185" yWindow="1350" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Employee" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -5837,8 +5837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M240"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
